--- a/My Sets/Space Quest (Apple II)/Space Quest - Plan.xlsx
+++ b/My Sets/Space Quest (Apple II)/Space Quest - Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Space Quest\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Space Quest (Apple II)\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="264">
   <si>
     <t>Description</t>
   </si>
@@ -800,9 +800,6 @@
     <t>Xeno Cultured!</t>
   </si>
   <si>
-    <t>Catch all of the bands in the Ulence Flats bar (must listen to each band for a minute)</t>
-  </si>
-  <si>
     <t>Abandon Ship!</t>
   </si>
   <si>
@@ -831,6 +828,9 @@
   </si>
   <si>
     <t>Flags</t>
+  </si>
+  <si>
+    <t>Catch all of the bands in the Ulence Flats bar and listen to each band for a minute or more</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -1547,10 +1547,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1609,7 +1606,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -1841,7 +1838,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5363,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>124</v>
@@ -5389,7 +5386,7 @@
         <v>240</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>243</v>
@@ -5409,13 +5406,13 @@
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>242</v>
@@ -5432,7 +5429,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>241</v>
@@ -11071,7 +11068,7 @@
         <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1">
         <f>FLOOR(B6/8,1)</f>
@@ -11653,7 +11650,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>Achievements!F14</f>
-        <v>Catch all of the bands in the Ulence Flats bar (must listen to each band for a minute)</v>
+        <v>Catch all of the bands in the Ulence Flats bar and listen to each band for a minute or more</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>19</v>
@@ -12257,7 +12254,7 @@
     <row r="15" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Xeno Cultured!","Catch all of the bands in the Ulence Flats bar (must listen to each band for a minute)", 3, trigger)</v>
+        <v>achievement("Xeno Cultured!","Catch all of the bands in the Ulence Flats bar and listen to each band for a minute or more", 3, trigger)</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
